--- a/data/gonad_stage.xlsx
+++ b/data/gonad_stage.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\parechinus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDFEBCA-4FB9-4FE8-8AED-739623231852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61597C68-770D-4915-ACAC-43A65062ED06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{30278AAB-C5A5-423E-BD46-DF57CDC2ABDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$81</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="37">
   <si>
     <t>tank</t>
   </si>
@@ -86,9 +89,6 @@
     <t>partly spent</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>recovery?</t>
   </si>
   <si>
@@ -98,28 +98,58 @@
     <t>mature?</t>
   </si>
   <si>
+    <t>growing/recovery?</t>
+  </si>
+  <si>
+    <t>or not?</t>
+  </si>
+  <si>
+    <t>small gap between sperm cells and cell wall</t>
+  </si>
+  <si>
+    <t>premature?</t>
+  </si>
+  <si>
+    <t>stage_nr</t>
+  </si>
+  <si>
     <t>spent</t>
   </si>
   <si>
-    <t>spent?</t>
-  </si>
-  <si>
-    <t>growing/recovery?</t>
-  </si>
-  <si>
-    <t>premature/mature?</t>
-  </si>
-  <si>
-    <t>premature? Partly spent?</t>
-  </si>
-  <si>
-    <t>mature/partly?</t>
-  </si>
-  <si>
-    <t>mature/partly spent?</t>
-  </si>
-  <si>
-    <t>premature/partly spent?</t>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>ambient</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>uw</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>kw</t>
   </si>
 </sst>
 </file>
@@ -182,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -328,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,19 +508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24947DFC-2CFC-4AFE-B955-0C791A249E6B}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,16 +530,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -515,16 +559,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,56 +585,83 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -589,16 +669,25 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -606,16 +695,25 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -623,16 +721,25 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -640,193 +747,280 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G13" s="1">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="1">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="G17" s="1">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="1">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -834,16 +1028,25 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -851,16 +1054,25 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -868,16 +1080,25 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -885,16 +1106,25 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>12</v>
       </c>
-      <c r="E22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -902,50 +1132,80 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="1">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -953,53 +1213,80 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1007,19 +1294,25 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1027,16 +1320,25 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="E30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1044,16 +1346,25 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="E31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1061,16 +1372,25 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="E32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1078,16 +1398,25 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1095,73 +1424,103 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34">
         <v>19</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35">
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
         <v>19</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1169,19 +1528,25 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38">
         <v>19</v>
       </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>6</v>
       </c>
@@ -1189,56 +1554,77 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
         <v>19</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="H40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
         <v>12</v>
       </c>
-      <c r="E40">
+      <c r="G41">
         <v>19</v>
       </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>12</v>
       </c>
@@ -1246,50 +1632,83 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42">
         <v>19</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>13</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E43">
+      <c r="G43" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>14</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1297,19 +1716,25 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45">
         <v>19</v>
       </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>16</v>
       </c>
@@ -1317,16 +1742,25 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>17</v>
       </c>
@@ -1334,33 +1768,54 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>12</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>19</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>22</v>
       </c>
@@ -1368,19 +1823,25 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
         <v>19</v>
       </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>23</v>
       </c>
@@ -1388,16 +1849,25 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>24</v>
       </c>
@@ -1405,16 +1875,25 @@
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>25</v>
       </c>
@@ -1422,16 +1901,25 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>26</v>
       </c>
@@ -1439,167 +1927,248 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>19</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>27</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1">
+        <v>19</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>28</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E53">
+      <c r="G55" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>27</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54">
+      <c r="H55">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56">
         <v>19</v>
       </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55">
+      <c r="H56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="1">
+        <v>19</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
         <v>28</v>
       </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1">
+        <v>26</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1">
+        <v>26</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>26</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
         <v>31</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>3</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>26</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1607,16 +2176,25 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>26</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1624,16 +2202,25 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
         <v>15</v>
       </c>
-      <c r="E63">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>26</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>8</v>
       </c>
@@ -1641,16 +2228,25 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
         <v>15</v>
       </c>
-      <c r="E64">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>26</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>9</v>
       </c>
@@ -1658,16 +2254,25 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
         <v>15</v>
       </c>
-      <c r="E65">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>26</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>12</v>
       </c>
@@ -1675,33 +2280,54 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>26</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>13</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1">
+        <v>26</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>14</v>
       </c>
@@ -1709,19 +2335,25 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68">
-        <v>26</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>26</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>15</v>
       </c>
@@ -1729,16 +2361,25 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
         <v>15</v>
       </c>
-      <c r="E69">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>26</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>16</v>
       </c>
@@ -1746,36 +2387,51 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>26</v>
+      </c>
+      <c r="H70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
         <v>15</v>
       </c>
-      <c r="E70">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>17</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>26</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>19</v>
       </c>
@@ -1783,36 +2439,54 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>26</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>22</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E73">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G73" s="1">
+        <v>26</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>23</v>
       </c>
@@ -1820,16 +2494,25 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>26</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>24</v>
       </c>
@@ -1837,19 +2520,25 @@
         <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75">
-        <v>26</v>
-      </c>
-      <c r="H75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>26</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>25</v>
       </c>
@@ -1857,19 +2546,25 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
         <v>12</v>
       </c>
-      <c r="E76">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>26</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>26</v>
       </c>
@@ -1877,16 +2572,25 @@
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>15</v>
       </c>
-      <c r="E77">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>26</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>27</v>
       </c>
@@ -1894,16 +2598,25 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="E78">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>26</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>28</v>
       </c>
@@ -1911,16 +2624,25 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="E79">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>26</v>
+      </c>
+      <c r="H79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>30</v>
       </c>
@@ -1928,19 +2650,25 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>26</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>31</v>
       </c>
@@ -1948,13 +2676,22 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>26</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
